--- a/AdjustableParameters.xlsx
+++ b/AdjustableParameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\IRIS Imager Local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Matt\IRIS Imager v1_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC779BF8-2F62-4A07-BF91-9E79B369F817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1C9F9-6689-4720-81B3-C4BDF770BD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
     <t>Lightness value for white film (LAB)</t>
   </si>
   <si>
-    <t>Min cirlce radius in inches</t>
-  </si>
-  <si>
-    <t>Max cirlce radius in inches</t>
-  </si>
-  <si>
     <t>Factor for increasing NaN masking around circles (multiplied by circle radius)</t>
   </si>
   <si>
@@ -1201,12 +1195,6 @@
     <t>Values of b* (change) above this are considered Fe (rather than white) for counting Fe on Mn films or S films</t>
   </si>
   <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>OutData_MnTest.xlsx</t>
-  </si>
-  <si>
     <t>Image_Path</t>
   </si>
   <si>
@@ -1220,6 +1208,18 @@
   </si>
   <si>
     <t>dark</t>
+  </si>
+  <si>
+    <t>Min circle radius in inches</t>
+  </si>
+  <si>
+    <t>Max circle radius in inches</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>OutData_FeTest.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,35 +1691,35 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,10 +1744,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,10 +1758,10 @@
         <v>0.1</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,10 +1772,10 @@
         <v>0.15</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,10 +1800,10 @@
         <v>1.2</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,10 +1814,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,147 +1828,147 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" t="s">
         <v>387</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D20" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="C23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" t="s">
         <v>378</v>
-      </c>
-      <c r="D23" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -1994,21 +1994,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>94.871555650000005</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>94.113571879999995</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>94.497410979999998</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>94.565333039999999</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>94.529237210000005</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>94.134679730000002</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>84.152583059999998</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>83.704236710000004</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>82.880539979999995</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>83.523476270000003</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>83.962654349999994</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>84.499041579999997</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>74.599575979999997</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>72.499828019999995</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>73.322168270000006</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>73.328538789999996</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
         <v>73.745525299999997</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1">
         <v>74.757549019999999</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>64.235863120000005</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
         <v>62.278553969999997</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1">
         <v>61.666226129999998</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1">
         <v>61.975198560000003</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1">
         <v>62.012175999999997</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <v>53.605403129999999</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
         <v>51.856890440000001</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
         <v>51.07486463</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1">
         <v>50.729449670000001</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
         <v>38.692820570000002</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1">
         <v>41.859470379999998</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1">
         <v>35.480840950000001</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1">
         <v>36.625380579999998</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
         <v>96.134087269999995</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1">
         <v>94.116441050000006</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1">
         <v>93.268158540000002</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1">
         <v>92.731755899999996</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1">
         <v>83.983022700000006</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1">
         <v>84.89794603</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1">
         <v>84.28354865</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1">
         <v>84.347328849999997</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1">
         <v>83.28742742</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1">
         <v>81.946227960000002</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1">
         <v>73.084141790000004</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1">
         <v>72.904791729999999</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1">
         <v>72.875030280000004</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>72.903189449999999</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1">
         <v>72.614952689999996</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1">
         <v>73.021953330000002</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1">
         <v>62.566962240000002</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1">
         <v>62.112315850000002</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1">
         <v>61.86393606</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1">
         <v>61.076866559999999</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1">
         <v>60.871250430000003</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1">
         <v>62.12993926</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1">
         <v>51.493730669999998</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" s="1">
         <v>50.293768839999998</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1">
         <v>50.10506247</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="1">
         <v>49.858429370000003</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1">
         <v>50.77044824</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" s="1">
         <v>51.951430520000002</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" s="1">
         <v>40.364779669999997</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64" s="1">
         <v>39.941499450000002</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="1">
         <v>39.343603420000001</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="1">
         <v>40.84872206</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1">
         <v>37.224071289999998</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1">
         <v>32.959743199999998</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" s="1">
         <v>34.970533199999998</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="1">
         <v>27.051965429999999</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="1">
         <v>31.04182848</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B72" s="1">
         <v>95.793410010000002</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" s="1">
         <v>95.557397760000001</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="1">
         <v>95.242924909999999</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" s="1">
         <v>96.795607459999999</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" s="1">
         <v>96.787979849999999</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="1">
         <v>95.846481679999997</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1">
         <v>85.173110910000005</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B79" s="1">
         <v>83.446077090000003</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" s="1">
         <v>84.888818639999997</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B81" s="1">
         <v>85.941138370000004</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B82" s="1">
         <v>86.719502410000004</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1">
         <v>87.16114503</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="1">
         <v>73.242776190000001</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B85" s="1">
         <v>72.844718589999999</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="1">
         <v>73.639835070000004</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="1">
         <v>74.116999629999995</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B88" s="1">
         <v>75.309312890000001</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89" s="1">
         <v>76.392383879999997</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" s="1">
         <v>63.16579067</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B91" s="1">
         <v>63.529680900000002</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" s="1">
         <v>63.931242240000003</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B93" s="1">
         <v>63.662194679999999</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B94" s="1">
         <v>64.63174042</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" s="1">
         <v>53.417493020000002</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B96" s="1">
         <v>51.626172660000002</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B97" s="1">
         <v>52.562086000000001</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" s="1">
         <v>53.839210860000001</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1">
         <v>42.926576750000002</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" s="1">
         <v>42.675101820000002</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" s="1">
         <v>38.40886364</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B102" s="1">
         <v>37.137729579999998</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103" s="1">
         <v>95.973272919999999</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B104" s="1">
         <v>95.086934920000004</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B105" s="1">
         <v>94.082500030000006</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B106" s="1">
         <v>93.17856639</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B107" s="1">
         <v>85.526179369999994</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B108" s="1">
         <v>84.153764499999994</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B109" s="1">
         <v>84.193745800000002</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B110" s="1">
         <v>83.974864190000005</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B111" s="1">
         <v>83.761910349999994</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1">
         <v>83.120506629999994</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B113" s="1">
         <v>74.322854800000002</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B114" s="1">
         <v>72.533629360000006</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B115" s="1">
         <v>72.474381339999994</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B116" s="1">
         <v>72.595278660000005</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B117" s="1">
         <v>71.316139489999998</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B118" s="1">
         <v>72.761500380000001</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B119" s="1">
         <v>62.671283350000003</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B120" s="1">
         <v>62.439059239999999</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B121" s="1">
         <v>61.501824229999997</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B122" s="1">
         <v>60.932445510000001</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B123" s="1">
         <v>62.040426400000001</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B124" s="1">
         <v>61.249461779999997</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B125" s="1">
         <v>50.722223980000003</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B126" s="1">
         <v>51.122603890000001</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B127" s="1">
         <v>50.684859770000003</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B128" s="1">
         <v>49.54697453</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B129" s="1">
         <v>49.644505930000001</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B130" s="1">
         <v>38.797491110000003</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B131" s="1">
         <v>39.899522400000002</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B132" s="1">
         <v>39.649641029999998</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1">
         <v>33.707343809999998</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B134" s="1">
         <v>34.836669149999999</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B135" s="1">
         <v>37.476804440000002</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B136" s="1">
         <v>94.911163900000005</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B137" s="1">
         <v>94.92118275</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B138" s="1">
         <v>93.588144310000004</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B139" s="1">
         <v>93.375394060000005</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B140" s="1">
         <v>93.284648309999994</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B141" s="1">
         <v>83.700669059999996</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B142" s="1">
         <v>84.408891859999997</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B143" s="1">
         <v>82.885555449999998</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B144" s="1">
         <v>83.653206609999998</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B145" s="1">
         <v>83.96846773</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B146" s="1">
         <v>83.851503890000004</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1">
         <v>73.796455249999994</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B148" s="1">
         <v>72.884804599999995</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B149" s="1">
         <v>72.193149939999998</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B150" s="1">
         <v>71.747671199999999</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B151" s="1">
         <v>73.436097079999996</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B152" s="1">
         <v>73.573842819999996</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B153" s="1">
         <v>62.040866700000002</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B154" s="1">
         <v>62.98083733</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B155" s="1">
         <v>62.815514559999997</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B156" s="1">
         <v>60.592874610000003</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B157" s="1">
         <v>62.44002296</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B158" s="1">
         <v>63.823809300000001</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B159" s="1">
         <v>51.432693280000002</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B160" s="1">
         <v>52.097440480000003</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B161" s="1">
         <v>51.454681350000001</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B162" s="1">
         <v>49.717168530000002</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B163" s="1">
         <v>50.766637969999998</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B164" s="1">
         <v>39.261977139999999</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B165" s="1">
         <v>40.697548560000001</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B166" s="1">
         <v>36.948375470000002</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B167" s="1">
         <v>38.08194408</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B168" s="1">
         <v>35.404213370000001</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B169" s="1">
         <v>31.945076920000002</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B170" s="1">
         <v>32.135090400000003</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B171" s="1">
         <v>95.17256313</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B172" s="1">
         <v>95.150258410000006</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B173" s="1">
         <v>94.452584610000002</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B174" s="1">
         <v>93.670806839999997</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B175" s="1">
         <v>83.59989899</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B176" s="1">
         <v>85.155977070000006</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B177" s="1">
         <v>83.191545649999995</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B178" s="1">
         <v>86.242380049999994</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B179" s="1">
         <v>82.767689829999995</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B180" s="1">
         <v>80.994623820000001</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B181" s="1">
         <v>74.234324169999994</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B182" s="1">
         <v>72.895135370000006</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B183" s="1">
         <v>72.552575340000004</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B184" s="1">
         <v>74.884508389999993</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B185" s="1">
         <v>71.988465399999995</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B186" s="1">
         <v>72.694524209999997</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B187" s="1">
         <v>61.820403890000001</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B188" s="1">
         <v>62.925182110000002</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B189" s="1">
         <v>60.920243880000001</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B190" s="1">
         <v>61.635990499999998</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B191" s="1">
         <v>61.93833472</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B192" s="1">
         <v>61.797158160000002</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B193" s="1">
         <v>51.202507619999999</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B194" s="1">
         <v>51.595162479999999</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B195" s="1">
         <v>51.437354710000001</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B196" s="1">
         <v>49.463895100000002</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B197" s="1">
         <v>50.924155339999999</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B198" s="1">
         <v>52.015981500000002</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B199" s="1">
         <v>40.26758143</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B200" s="1">
         <v>39.79516813</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B201" s="1">
         <v>40.095786840000002</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B202" s="1">
         <v>41.658006</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B203" s="1">
         <v>36.634188479999999</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B204" s="1">
         <v>34.691140900000001</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B205" s="1">
         <v>34.749133450000002</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B206" s="1">
         <v>92.801917329999995</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B207" s="1">
         <v>94.055972780000005</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B208" s="1">
         <v>93.508666660000003</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B209" s="1">
         <v>93.33757593</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B210" s="1">
         <v>93.066752870000002</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B211" s="1">
         <v>92.985666780000003</v>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B212" s="1">
         <v>83.725085500000006</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B213" s="1">
         <v>83.652614420000006</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B214" s="1">
         <v>82.313592799999995</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B215" s="1">
         <v>82.586294969999997</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B216" s="1">
         <v>84.809217590000003</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B217" s="1">
         <v>84.556576120000003</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B218" s="1">
         <v>73.601177010000001</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B219" s="1">
         <v>72.005537529999998</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B220" s="1">
         <v>72.090089689999999</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B221" s="1">
         <v>70.859014900000005</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B222" s="1">
         <v>73.659768540000002</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B223" s="1">
         <v>73.211533099999997</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B224" s="1">
         <v>61.476029920000002</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B225" s="1">
         <v>60.616153789999998</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B226" s="1">
         <v>61.372654599999997</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B227" s="1">
         <v>61.982550639999999</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B228" s="1">
         <v>60.85161317</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B229" s="1">
         <v>63.917620429999999</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B230" s="1">
         <v>51.027805829999998</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B231" s="1">
         <v>50.250350830000002</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B232" s="1">
         <v>50.712229069999999</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B233" s="1">
         <v>50.875813460000003</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B234" s="1">
         <v>50.557969550000003</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B235" s="1">
         <v>40.582121370000003</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B236" s="1">
         <v>39.587233099999999</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B237" s="1">
         <v>35.289180109999997</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B238" s="1">
         <v>39.214625589999997</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B239" s="1">
         <v>39.632035389999999</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B240" s="1">
         <v>26.82149532</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B241" s="1">
         <v>26.855330299999999</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B242" s="1">
         <v>97.012419820000005</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B243" s="1">
         <v>96.249377550000005</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B244" s="1">
         <v>96.622252020000005</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B245" s="1">
         <v>96.631455849999995</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B246" s="1">
         <v>95.449674239999993</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B247" s="1">
         <v>95.807795799999994</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B248" s="1">
         <v>84.680660119999999</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B249" s="1">
         <v>84.486064290000002</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B250" s="1">
         <v>84.602874270000001</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B251" s="1">
         <v>84.499331330000004</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B252" s="1">
         <v>85.464014829999996</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B253" s="1">
         <v>85.514041349999999</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B254" s="1">
         <v>75.072388119999999</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B255" s="1">
         <v>74.619126769999994</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B256" s="1">
         <v>73.048673289999996</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B257" s="1">
         <v>74.062475559999996</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B258" s="1">
         <v>75.089880440000002</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B259" s="1">
         <v>74.393838009999996</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B260" s="1">
         <v>62.156879510000003</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B261" s="1">
         <v>63.013935089999997</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B262" s="1">
         <v>62.846911630000001</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B263" s="1">
         <v>62.992752709999998</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B264" s="1">
         <v>62.771446580000003</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B265" s="1">
         <v>63.215033910000002</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B266" s="1">
         <v>51.410731669999997</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B267" s="1">
         <v>51.086737999999997</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B268" s="1">
         <v>51.415597159999997</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B269" s="1">
         <v>52.001776409999998</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B270" s="1">
         <v>51.89796535</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B271" s="1">
         <v>53.873748059999997</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B272" s="1">
         <v>40.536917629999998</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B273" s="1">
         <v>38.455194640000002</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B274" s="1">
         <v>39.06634571</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B275" s="1">
         <v>39.091550699999999</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B276" s="1">
         <v>40.052669860000002</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B277" s="1">
         <v>40.84391299</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B278" s="1">
         <v>32.623415999999999</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B279" s="1">
         <v>34.757966570000001</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B280" s="1">
         <v>34.225189380000003</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B281" s="1">
         <v>35.126806289999998</v>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B282" s="1">
         <v>34.636906959999997</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B283" s="1">
         <v>36.156705680000002</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B284" s="1">
         <v>95.166625600000003</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B285" s="1">
         <v>84.353742240000003</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B286" s="1">
         <v>73.308085719999994</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B287" s="1">
         <v>61.891820070000001</v>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B288" s="1">
         <v>50.40086239</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B289" s="1">
         <v>37.685141160000001</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B290" s="1">
         <v>32.509786810000001</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B291" s="1">
         <v>93.972424649999994</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B292" s="1">
         <v>84.217928380000004</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B293" s="1">
         <v>73.330398610000003</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B294" s="1">
         <v>61.4189705</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B295" s="1">
         <v>50.551159310000003</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B296" s="1">
         <v>38.12183521</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B297" s="1">
         <v>32.670854419999998</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B298" s="1">
         <v>94.854328199999998</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B299" s="1">
         <v>83.89533763</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B300" s="1">
         <v>74.110616879999995</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B301" s="1">
         <v>61.567536850000003</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B302" s="1">
         <v>51.399294759999997</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B303" s="1">
         <v>37.576035099999999</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B304" s="1">
         <v>31.40379939</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B305" s="1">
         <v>95.934065829999994</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B306" s="1">
         <v>84.424528319999993</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B307" s="1">
         <v>73.189084930000007</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B308" s="1">
         <v>62.507747250000001</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B309" s="1">
         <v>50.931378930000001</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B310" s="1">
         <v>38.998351139999997</v>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B311" s="1">
         <v>30.482599570000001</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B312" s="1">
         <v>95.475140460000006</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B313" s="1">
         <v>84.906209290000007</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B314" s="1">
         <v>72.945004220000001</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B315" s="1">
         <v>62.22730688</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B316" s="1">
         <v>51.635535220000001</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B317" s="1">
         <v>38.555340940000001</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B318" s="1">
         <v>33.575228459999998</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B319" s="1">
         <v>95.641766390000001</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B320" s="1">
         <v>84.186260730000001</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B321" s="1">
         <v>73.079273459999996</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B322" s="1">
         <v>63.318745919999998</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B323" s="1">
         <v>52.015484999999998</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B324" s="1">
         <v>38.282249829999998</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B325" s="1">
         <v>32.307803569999997</v>

--- a/AdjustableParameters.xlsx
+++ b/AdjustableParameters.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Matt\IRIS Imager v1_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Matt\IRIS Imager\IRIS Imager v1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1C9F9-6689-4720-81B3-C4BDF770BD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF78A39E-C6DC-4BDB-BBCD-98BB7A7E7928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Munsell" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="411">
   <si>
     <t>Variable</t>
   </si>
@@ -1216,10 +1216,49 @@
     <t>Max circle radius in inches</t>
   </si>
   <si>
+    <t>Avg_Thickness</t>
+  </si>
+  <si>
+    <t>Avg_Depth</t>
+  </si>
+  <si>
+    <t>Avg_Thickness&lt;x&lt;length of film</t>
+  </si>
+  <si>
+    <t>0&lt;x&lt;Avg_Depth</t>
+  </si>
+  <si>
+    <t>Hydric Soils Technical Standard: Thickness of zone to average removal across (in)</t>
+  </si>
+  <si>
+    <t>Hydric Soils Technical Standard: Bottom of zone to average removal across (in)</t>
+  </si>
+  <si>
     <t>Fe</t>
   </si>
   <si>
-    <t>OutData_FeTest.xlsx</t>
+    <t>OutData_Fe.xlsx</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>This is the Adjustable Parameters file for IRIS Imager v1.2</t>
+  </si>
+  <si>
+    <t>Adjust any values in column B</t>
+  </si>
+  <si>
+    <t>Do not change tab names</t>
+  </si>
+  <si>
+    <t>Do not add rows</t>
+  </si>
+  <si>
+    <t>Save different versions of the file for different file types/analyses</t>
+  </si>
+  <si>
+    <t>For more info, see the User Guide</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,9 +1661,10 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1637,8 +1677,11 @@
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1651,8 +1694,11 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1665,8 +1711,11 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1679,8 +1728,11 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1693,8 +1745,11 @@
       <c r="D5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>369</v>
       </c>
@@ -1707,8 +1762,11 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>370</v>
       </c>
@@ -1721,8 +1779,11 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +1839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1864,114 +1925,197 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>396</v>
+        <v>380</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>386</v>
+      </c>
+      <c r="D22" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C23" t="s">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>378</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>393</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D24" t="s">
-        <v>378</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>389</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>390</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>391</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="17">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="DPI must be &gt;0" sqref="B2" xr:uid="{6E9CBEE2-7D3B-46EF-8699-C76FF73D098C}">
+      <formula1>B2&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be &gt;0" sqref="B3:B4 B10" xr:uid="{15335100-1719-48D3-BFBB-2636DCEECD85}">
+      <formula1>B3&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be &gt;0 and &lt;=1" sqref="B5" xr:uid="{0D16770A-78A4-45CB-A06B-05CFED6A4AAC}">
+      <formula1>AND(B5&gt;0,B5&lt;=1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{BF5C4A47-AF56-42DD-91F7-EFDDD61B4E70}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{853D9D41-99D6-4226-AAAE-19C08C5195DD}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be between 0 and 100" sqref="B8:B9" xr:uid="{7CA4C31A-10E1-4DD4-96E6-A4DC931DBCAB}">
+      <formula1>AND(B8&gt;=0,B8&lt;=100)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be &gt;0 and &gt; CircleRad_min" sqref="B11" xr:uid="{C19AD672-88C0-46A0-9BE8-76BB1E08A717}">
+      <formula1>AND(B11&gt;0,B11&gt;B10)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be &gt;1" sqref="B12:B13" xr:uid="{B9695515-5818-454A-B0CA-9B2E91FFDB1D}">
+      <formula1>B12&gt;1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of range" error="Must be integer" sqref="B14:B15" xr:uid="{081366AF-EC34-4256-8131-4C0D0510C351}">
+      <formula1>0</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of range" error="Must be positive integer" sqref="B16:B17" xr:uid="{F337AF1F-19EF-4FD6-A938-00464EA874D1}">
+      <formula1>1</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be between 0 and Avg_Depth" sqref="B18" xr:uid="{8ED66084-3F35-4FA7-9A25-20EBD2583690}">
+      <formula1>AND(B18&gt;0,B18&lt;B19)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be &gt;Avg_Thickness" sqref="B19" xr:uid="{8A125D8E-5CC5-4E4C-B6CD-C7AC3191777C}">
+      <formula1>B19&gt;B18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{70EE128F-C83D-4CF6-BE5A-B45034D9B600}">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Out of Range" error="Must be &gt;=0" sqref="B21" xr:uid="{D33E889C-C07A-404D-A095-0D321F8BDE6D}">
+      <formula1>B21&gt;=0</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{EFD95963-0639-4F69-96C0-EBCA50F70A43}">
+      <formula1>"Fe, Mn, S"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{0726050D-1A4B-4D06-82D7-CBA62A353AD1}">
+      <formula1>"bright, dark"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{8545569E-FFA0-401E-AB07-0F890878FB0B}">
+      <formula1>"dark, bright"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
